--- a/Phase-2-change/Training/training_plans.xlsx
+++ b/Phase-2-change/Training/training_plans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelkonrath/Documents/Epitech/ProjetMSC1/Gotham/gotham_2020_20/Phase-2-change/Training/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E45D06E8-1188-B246-8D68-2C54E80898A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89634E67-6A37-F34F-B220-50AB6E44D8C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{4BC05C21-79CF-024B-B5FB-93BFA457E75A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="18000" xr2:uid="{4BC05C21-79CF-024B-B5FB-93BFA457E75A}"/>
   </bookViews>
   <sheets>
     <sheet name="Training plans" sheetId="1" r:id="rId1"/>
@@ -464,6 +464,21 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -478,21 +493,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -819,7 +819,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A31"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -832,13 +832,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -863,7 +863,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -880,7 +880,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
@@ -895,7 +895,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -910,7 +910,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
@@ -925,7 +925,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -940,7 +940,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
@@ -955,7 +955,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -970,7 +970,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -987,7 +987,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1002,7 +1002,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1017,7 +1017,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
         <v>44</v>
       </c>
@@ -1032,7 +1032,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
@@ -1047,7 +1047,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1064,8 +1064,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1079,8 +1079,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
@@ -1092,8 +1092,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="1" t="s">
         <v>57</v>
       </c>
@@ -1105,7 +1105,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1122,7 +1122,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="1" t="s">
         <v>61</v>
       </c>
@@ -1137,7 +1137,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="1" t="s">
         <v>61</v>
       </c>
@@ -1152,7 +1152,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="1" t="s">
         <v>63</v>
       </c>
@@ -1167,7 +1167,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="1" t="s">
         <v>65</v>
       </c>
@@ -1182,10 +1182,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1199,8 +1199,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="1" t="s">
         <v>74</v>
       </c>
@@ -1212,7 +1212,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="9" t="s">
         <v>40</v>
       </c>
@@ -1227,7 +1227,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="9" t="s">
         <v>78</v>
       </c>
@@ -1242,10 +1242,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1259,8 +1259,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="1" t="s">
         <v>81</v>
       </c>
@@ -1272,7 +1272,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="9" t="s">
         <v>83</v>
       </c>
@@ -1308,16 +1308,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
